--- a/public/export/bieumauNhapBaocao.xlsx
+++ b/public/export/bieumauNhapBaocao.xlsx
@@ -15,33 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>Quản lý số liệu báo cáo</t>
   </si>
   <si>
     <t>Địa bàn:</t>
   </si>
   <si>
-    <t>Huyện Chư Pưh</t>
+    <t>Xã Đắk Mol</t>
   </si>
   <si>
     <t>Khu vực</t>
   </si>
   <si>
-    <t>Toàn tỉnh</t>
+    <t>Chỉ huyện</t>
   </si>
   <si>
     <t>Loại số liệu</t>
   </si>
   <si>
-    <t>TH Năm</t>
+    <t>KH Kỳ</t>
   </si>
   <si>
     <t>Kỳ nhập liệu</t>
   </si>
   <si>
-    <t>Năm</t>
+    <t>Tuần</t>
   </si>
   <si>
     <t>Năm nhập biểu mẫu</t>
@@ -59,16 +59,34 @@
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Tỷ lệ chất thải rắn ở đô thị được thu gom</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Số cơ sở gây ô nhiễm môi trường nghiêm trọng được xử lý  (*)</t>
-  </si>
-  <si>
-    <t>Số khu công nghiệp, khu chế xuất đang hoạt động</t>
+    <t>Chỉ tiêu kinh tế</t>
+  </si>
+  <si>
+    <t>Tổng giá trị sản xuất</t>
+  </si>
+  <si>
+    <t>Theo giá so sánh 2010</t>
+  </si>
+  <si>
+    <t>Nông, lâm, thuỷ sản</t>
+  </si>
+  <si>
+    <t>Tấn</t>
+  </si>
+  <si>
+    <t>Công nghiệp xây dựng</t>
+  </si>
+  <si>
+    <t>Tỷ đồng</t>
+  </si>
+  <si>
+    <t>Trong đó:</t>
+  </si>
+  <si>
+    <t>Xây dựng</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
   </si>
 </sst>
 </file>
@@ -476,10 +494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:C11"/>
+      <selection activeCell="A8" sqref="A8:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -594,41 +612,93 @@
         <v>14</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="9"/>
       <c r="F8" s="7">
-        <v>312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="F9" s="7">
-        <v>313</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/export/bieumauNhapBaocao.xlsx
+++ b/public/export/bieumauNhapBaocao.xlsx
@@ -15,33 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>Quản lý số liệu báo cáo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+  <si>
+    <t>Bieu mau nhap lieu</t>
   </si>
   <si>
     <t>Địa bàn:</t>
   </si>
   <si>
-    <t>Xã Đắk Mol</t>
+    <t>Ia Hla</t>
   </si>
   <si>
     <t>Khu vực</t>
   </si>
   <si>
-    <t>Chỉ huyện</t>
+    <t>Toàn tỉnh</t>
   </si>
   <si>
     <t>Loại số liệu</t>
   </si>
   <si>
-    <t>KH Kỳ</t>
+    <t>KH Năm</t>
   </si>
   <si>
     <t>Kỳ nhập liệu</t>
   </si>
   <si>
-    <t>Tuần</t>
+    <t>Năm</t>
   </si>
   <si>
     <t>Năm nhập biểu mẫu</t>
@@ -87,6 +87,96 @@
   </si>
   <si>
     <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Cơ cấu GTSX theo giá hiện hành</t>
+  </si>
+  <si>
+    <t>Công nghiệp</t>
+  </si>
+  <si>
+    <t>Số xã đạt chuẩn nông thôn mới</t>
+  </si>
+  <si>
+    <t>Số xã đạt 19 tiêu chí</t>
+  </si>
+  <si>
+    <t>Xã</t>
+  </si>
+  <si>
+    <t>Số xã đạt từ 15- 18 tiêu chí</t>
+  </si>
+  <si>
+    <t>Số xã xã đạt từ 10 - 14 tiêu chí</t>
+  </si>
+  <si>
+    <t>Số xã đạt từ 5 - 9 tiêu chí</t>
+  </si>
+  <si>
+    <t>Số xã đạt dưới 5 tiêu chí</t>
+  </si>
+  <si>
+    <t>Theo giá hiện hành</t>
+  </si>
+  <si>
+    <t>Nông lâm thuỷ sản</t>
+  </si>
+  <si>
+    <t>Tổng mức bán lẻ hàng hoá và doanh thu dịch vụ tiêu dùng trên địa bàn</t>
+  </si>
+  <si>
+    <t>Kim ngạch xuất khẩu hàng hóa trên địa bàn</t>
+  </si>
+  <si>
+    <t>Triệu USD</t>
+  </si>
+  <si>
+    <t>Trong đó: Xuất khẩu địa phương (quản lý)</t>
+  </si>
+  <si>
+    <t>Thu Ngân sách Nhà nước trên địa bàn</t>
+  </si>
+  <si>
+    <t>Thu Ngân sách Nhà nước trên địa bàn không bao gồm số bổ sung từ ngân sách cấp trên</t>
+  </si>
+  <si>
+    <t>Thu ngân sách huyện, thị xã, thành phố</t>
+  </si>
+  <si>
+    <t>Thu NS huyện, thị xã, TP hưởng theo phân cấp</t>
+  </si>
+  <si>
+    <t>Thu bổ sung từ ngân sách cấp tỉnh</t>
+  </si>
+  <si>
+    <t>' + Bổ sung cân đối</t>
+  </si>
+  <si>
+    <t>+ Bổ sung có mục tiêu</t>
+  </si>
+  <si>
+    <t>'Chi ngân sách địa phương</t>
+  </si>
+  <si>
+    <t>Chi đầu tư phát triển do huyện, thị xã, thành phố quản lý</t>
+  </si>
+  <si>
+    <t>- Vốn cân đối NS huyện, thị xã, thành phố (vốn phân cấp)</t>
+  </si>
+  <si>
+    <t>'- Từ nguồn thu tiền SD đất</t>
+  </si>
+  <si>
+    <t>- Nguồn ngân sách khác</t>
+  </si>
+  <si>
+    <t>Trong đó: Thu từ xổ số kiến thiết</t>
+  </si>
+  <si>
+    <t>'Chi thường xuyên</t>
+  </si>
+  <si>
+    <t>'Tổng vốn đầu tư phát triển trên địa bàn (gồm vốn đầu tư NSNN, vốn nhân dân, vốn tín dụng…)</t>
   </si>
 </sst>
 </file>
@@ -494,10 +584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:C16"/>
+      <selection activeCell="A8" sqref="A8:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,9 +786,439 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
+      <c r="F16" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="F19" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="F22" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="F23" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="F37" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="F38" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="F46" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/export/bieumauNhapBaocao.xlsx
+++ b/public/export/bieumauNhapBaocao.xlsx
@@ -15,21 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
-  <si>
-    <t>Bieu mau nhap lieu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>BM0003</t>
   </si>
   <si>
     <t>Địa bàn:</t>
   </si>
   <si>
-    <t>Ia Hla</t>
+    <t>Xã Nâm N'Jang</t>
   </si>
   <si>
     <t>Khu vực</t>
   </si>
   <si>
-    <t>Toàn tỉnh</t>
+    <t>Chỉ huyện</t>
   </si>
   <si>
     <t>Loại số liệu</t>
@@ -78,105 +78,6 @@
   </si>
   <si>
     <t>Tỷ đồng</t>
-  </si>
-  <si>
-    <t>Trong đó:</t>
-  </si>
-  <si>
-    <t>Xây dựng</t>
-  </si>
-  <si>
-    <t>Dịch vụ</t>
-  </si>
-  <si>
-    <t>Cơ cấu GTSX theo giá hiện hành</t>
-  </si>
-  <si>
-    <t>Công nghiệp</t>
-  </si>
-  <si>
-    <t>Số xã đạt chuẩn nông thôn mới</t>
-  </si>
-  <si>
-    <t>Số xã đạt 19 tiêu chí</t>
-  </si>
-  <si>
-    <t>Xã</t>
-  </si>
-  <si>
-    <t>Số xã đạt từ 15- 18 tiêu chí</t>
-  </si>
-  <si>
-    <t>Số xã xã đạt từ 10 - 14 tiêu chí</t>
-  </si>
-  <si>
-    <t>Số xã đạt từ 5 - 9 tiêu chí</t>
-  </si>
-  <si>
-    <t>Số xã đạt dưới 5 tiêu chí</t>
-  </si>
-  <si>
-    <t>Theo giá hiện hành</t>
-  </si>
-  <si>
-    <t>Nông lâm thuỷ sản</t>
-  </si>
-  <si>
-    <t>Tổng mức bán lẻ hàng hoá và doanh thu dịch vụ tiêu dùng trên địa bàn</t>
-  </si>
-  <si>
-    <t>Kim ngạch xuất khẩu hàng hóa trên địa bàn</t>
-  </si>
-  <si>
-    <t>Triệu USD</t>
-  </si>
-  <si>
-    <t>Trong đó: Xuất khẩu địa phương (quản lý)</t>
-  </si>
-  <si>
-    <t>Thu Ngân sách Nhà nước trên địa bàn</t>
-  </si>
-  <si>
-    <t>Thu Ngân sách Nhà nước trên địa bàn không bao gồm số bổ sung từ ngân sách cấp trên</t>
-  </si>
-  <si>
-    <t>Thu ngân sách huyện, thị xã, thành phố</t>
-  </si>
-  <si>
-    <t>Thu NS huyện, thị xã, TP hưởng theo phân cấp</t>
-  </si>
-  <si>
-    <t>Thu bổ sung từ ngân sách cấp tỉnh</t>
-  </si>
-  <si>
-    <t>' + Bổ sung cân đối</t>
-  </si>
-  <si>
-    <t>+ Bổ sung có mục tiêu</t>
-  </si>
-  <si>
-    <t>'Chi ngân sách địa phương</t>
-  </si>
-  <si>
-    <t>Chi đầu tư phát triển do huyện, thị xã, thành phố quản lý</t>
-  </si>
-  <si>
-    <t>- Vốn cân đối NS huyện, thị xã, thành phố (vốn phân cấp)</t>
-  </si>
-  <si>
-    <t>'- Từ nguồn thu tiền SD đất</t>
-  </si>
-  <si>
-    <t>- Nguồn ngân sách khác</t>
-  </si>
-  <si>
-    <t>Trong đó: Thu từ xổ số kiến thiết</t>
-  </si>
-  <si>
-    <t>'Chi thường xuyên</t>
-  </si>
-  <si>
-    <t>'Tổng vốn đầu tư phát triển trên địa bàn (gồm vốn đầu tư NSNN, vốn nhân dân, vốn tín dụng…)</t>
   </si>
 </sst>
 </file>
@@ -584,10 +485,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:C53"/>
+      <selection activeCell="A8" sqref="A8:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,473 +653,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="F13" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="F19" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="F22" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="7">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="7">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="7">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="F37" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="F38" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="F46" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
